--- a/results/12hr_MLP.xlsx
+++ b/results/12hr_MLP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>bestHyperparameters</t>
   </si>
@@ -39,6 +39,27 @@
   </si>
   <si>
     <t>{'activation': 'relu', 'alpha': 1e-07, 'beta_1': 0.7, 'hidden_layer_sizes': 10, 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'max_iter': 2500, 'momentum': 0.85, 'power_t': 0.1, 'random_state': 6, 'solver': 'sgd'}</t>
+  </si>
+  <si>
+    <t>{'activation': 'relu', 'alpha': 1e-07, 'beta_1': 0.9, 'hidden_layer_sizes': 10, 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'max_iter': 3000, 'momentum': 0.85, 'power_t': 0.5, 'random_state': 6, 'solver': 'sgd'}</t>
+  </si>
+  <si>
+    <t>{'activation': 'relu', 'alpha': 1e-07, 'beta_1': 0.9, 'hidden_layer_sizes': 10, 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'max_iter': 3000, 'momentum': 0.9, 'power_t': 0.4, 'random_state': 6, 'solver': 'sgd'}</t>
+  </si>
+  <si>
+    <t>{'activation': 'relu', 'alpha': 1e-07, 'beta_1': 0.9, 'hidden_layer_sizes': 10, 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'max_iter': 3000, 'momentum': 0.9, 'power_t': 0.5, 'random_state': 6, 'solver': 'sgd'}</t>
+  </si>
+  <si>
+    <t>{'activation': 'relu', 'alpha': 1e-07, 'beta_1': 0.9, 'hidden_layer_sizes': 10, 'learning_rate': 'constant', 'learning_rate_init': 0.0001, 'max_iter': 1000000, 'momentum': 0.9800000000000001, 'power_t': 0.5, 'random_state': 6, 'solver': 'sgd'}</t>
+  </si>
+  <si>
+    <t>{'activation': 'relu', 'alpha': 1e-07, 'beta_1': 0.98, 'hidden_layer_sizes': 10, 'learning_rate': 'constant', 'learning_rate_init': 0.0001, 'max_iter': 1000000, 'momentum': 0.98, 'power_t': 0.5, 'random_state': 6, 'solver': 'sgd'}</t>
+  </si>
+  <si>
+    <t>{'activation': 'relu', 'alpha': 1e-07, 'beta_1': 0.9, 'hidden_layer_sizes': 10, 'learning_rate': 'constant', 'learning_rate_init': 0.0001, 'max_iter': 1000000, 'momentum': 0.9, 'power_t': 0.5, 'random_state': 6, 'solver': 'sgd'}</t>
+  </si>
+  <si>
+    <t>{'activation': 'relu', 'alpha': 1e-07, 'beta_1': 0.9, 'hidden_layer_sizes': 10, 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'max_iter': 700, 'momentum': 0.9, 'power_t': 0.5, 'random_state': 6, 'solver': 'sgd'}</t>
   </si>
 </sst>
 </file>
@@ -421,15 +442,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D4" activeCellId="0" pane="topLeft" sqref="A4:D4"/>
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="177.32"/>
+    <col customWidth="1" max="1" min="1" style="3" width="199"/>
     <col customWidth="1" max="2" min="2" style="3" width="12.6"/>
     <col customWidth="1" max="3" min="3" style="3" width="11.94"/>
     <col customWidth="1" max="1011" min="4" style="3" width="8.529999999999999"/>
@@ -469,37 +490,136 @@
         <v>0.8169999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row customHeight="1" ht="13.8" r="4" s="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="3" t="n">
         <v>0.925</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.8169999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C4" s="3" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="5" s="4" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.917</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="3" t="n">
         <v>0.783</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row customHeight="1" ht="13.8" r="6" s="4" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.917</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="3" t="n">
         <v>0.783</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="7" s="4" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.783</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="8" s="4" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="9" s="4" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="10" s="4" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="1048576" s="4" spans="1:3"/>

--- a/results/12hr_MLP.xlsx
+++ b/results/12hr_MLP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>bestHyperparameters</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>{'activation': 'relu', 'alpha': 1e-07, 'beta_1': 0.9, 'hidden_layer_sizes': 10, 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'max_iter': 700, 'momentum': 0.9, 'power_t': 0.5, 'random_state': 6, 'solver': 'sgd'}</t>
+  </si>
+  <si>
+    <t>{'activation': 'relu', 'alpha': 1e-06, 'beta_1': 0.9, 'hidden_layer_sizes': 10, 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'max_iter': 3000, 'momentum': 0.9, 'power_t': 0.5, 'random_state': 6, 'solver': 'lbfgs'}</t>
+  </si>
+  <si>
+    <t>{'activation': 'relu', 'alpha': 1e-06, 'beta_1': 0.9, 'hidden_layer_sizes': 10, 'learning_rate': 'constant', 'learning_rate_init': 0.1, 'max_iter': 500, 'momentum': 0.9, 'power_t': 0.5, 'random_state': 6, 'solver': 'lbfgs'}</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B:B"/>
@@ -622,6 +628,28 @@
         <v>0.8169999999999999</v>
       </c>
     </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.783</v>
+      </c>
+    </row>
     <row customHeight="1" ht="13.8" r="1048576" s="4" spans="1:3"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
